--- a/Week 3/Distribution of Teamwork.xlsx
+++ b/Week 3/Distribution of Teamwork.xlsx
@@ -495,7 +495,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
